--- a/Database/database-test/database-results.xlsx
+++ b/Database/database-test/database-results.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarthak.sonagara/Desktop/FINAL PROJECT/Database/database-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184CE556-CDF9-1241-AB83-D554C44F3906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661BD222-E302-774B-97F1-128A557212B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{97D29E81-A020-DC47-B110-E8EAD63024A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -160,6 +163,2408 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> time taken to serve a request</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Synchronous</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$10:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>11.698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.271000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.206</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.492000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.661000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.355000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-912E-424D-9B62-989DA96E6944}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Reactive</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>11.082000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.944000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.600999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.491</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.814999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-912E-424D-9B62-989DA96E6944}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="809013168"/>
+        <c:axId val="299365296"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="809013168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of concurrent</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> requests</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="299365296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="299365296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="809013168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Throughput</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Synchronous</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$10:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.5484698239015194E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80736315194574504</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5039403236479501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0301193867038299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0366523944004098</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2389975302643799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC27-9B42-A2FD-23B7C618D7A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Reactive</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.0236419418877403E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70195142496139196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8623361144219299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.78179592745076</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6912627809973699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5012473193575202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FC27-9B42-A2FD-23B7C618D7A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="809013168"/>
+        <c:axId val="299365296"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="809013168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of concurrent</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> requests</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="299365296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="299365296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Reeuests/second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="809013168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>802211</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>84438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>421211</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>181868</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11F81EE2-93A1-1649-92B0-62197CD4AA9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>621352</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>240352</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>69945</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BA581DB-9460-664A-B039-A39ED228F31E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="H3">
+            <v>7.5580077091678605E-2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="H4">
+            <v>0.77639751552795</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="H5">
+            <v>1.7098108949150199</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="H6">
+            <v>2.6197212616577499</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="H7">
+            <v>3.3371153974504399</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>1</v>
+          </cell>
+          <cell r="H9">
+            <v>7.8216660148611603E-2</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>10</v>
+          </cell>
+          <cell r="H10">
+            <v>0.80424642110342603</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>50</v>
+          </cell>
+          <cell r="H11">
+            <v>0.61321853882286503</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>100</v>
+          </cell>
+          <cell r="H12">
+            <v>0.63609994402320402</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>200</v>
+          </cell>
+          <cell r="H13">
+            <v>0.80007040619574499</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -461,8 +2866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DB207F-F9C1-2D4F-B770-DC9328A462DF}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H8"/>
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -940,5 +3345,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>